--- a/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_32_3.xlsx
+++ b/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_32_3.xlsx
@@ -518,661 +518,661 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_32_3_23</t>
+          <t>model_32_3_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9999064225340207</v>
+        <v>0.9999955361364887</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9993188960813476</v>
+        <v>0.9991131436301401</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9999684548954294</v>
+        <v>0.9999989120236468</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9980791214609956</v>
+        <v>0.9999986372752545</v>
       </c>
       <c r="F2" t="n">
-        <v>0.999185688499475</v>
+        <v>0.9999990528180908</v>
       </c>
       <c r="G2" t="n">
-        <v>8.735045691565021e-05</v>
+        <v>4.166820646816349e-06</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0006357806110553289</v>
+        <v>0.0008278414927686818</v>
       </c>
       <c r="I2" t="n">
-        <v>7.651433949389237e-06</v>
+        <v>6.323085319805273e-07</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0005372944469462652</v>
+        <v>1.59860956521898e-06</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0002724736944504349</v>
+        <v>1.11514505364606e-06</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0004428509136156537</v>
+        <v>0.0001310599191706777</v>
       </c>
       <c r="M2" t="n">
-        <v>0.009346146634610983</v>
+        <v>0.002041279169250583</v>
       </c>
       <c r="N2" t="n">
-        <v>1.00008983436734</v>
+        <v>1.000004285308971</v>
       </c>
       <c r="O2" t="n">
-        <v>0.009744031446037051</v>
+        <v>0.002128180649515988</v>
       </c>
       <c r="P2" t="n">
-        <v>116.6911645810751</v>
+        <v>122.7767144955421</v>
       </c>
       <c r="Q2" t="n">
-        <v>176.4160799996169</v>
+        <v>182.5016299140839</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_32_3_22</t>
+          <t>model_32_3_1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9999069511823357</v>
+        <v>0.9999962645341123</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9993188824895314</v>
+        <v>0.9991114265098484</v>
       </c>
       <c r="D3" t="n">
-        <v>0.999968469047144</v>
+        <v>0.9999983331323754</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9980910104947041</v>
+        <v>0.999998658174476</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9991906663866741</v>
+        <v>0.999998920285864</v>
       </c>
       <c r="G3" t="n">
-        <v>8.685698691849644e-05</v>
+        <v>3.486893438183337e-06</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0006357932984191615</v>
+        <v>0.0008294443491881673</v>
       </c>
       <c r="I3" t="n">
-        <v>7.64800137526235e-06</v>
+        <v>9.687477283389968e-07</v>
       </c>
       <c r="J3" t="n">
-        <v>0.000533968931219262</v>
+        <v>1.5740927320014e-06</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0002708080624228563</v>
+        <v>1.271179133013724e-06</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0004450513832622974</v>
+        <v>0.0001266930751955209</v>
       </c>
       <c r="M3" t="n">
-        <v>0.009319709594107342</v>
+        <v>0.001867322531911222</v>
       </c>
       <c r="N3" t="n">
-        <v>1.000089326864958</v>
+        <v>1.000003586047252</v>
       </c>
       <c r="O3" t="n">
-        <v>0.009716468925986953</v>
+        <v>0.001946818317985209</v>
       </c>
       <c r="P3" t="n">
-        <v>116.7024952408026</v>
+        <v>123.1329987009573</v>
       </c>
       <c r="Q3" t="n">
-        <v>176.4274106593444</v>
+        <v>182.8579141194992</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_32_3_21</t>
+          <t>model_32_3_2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9999075154672538</v>
+        <v>0.9999968154710431</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9993188805754238</v>
+        <v>0.9991097546980399</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9999684660986514</v>
+        <v>0.9999976198233766</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9981037936666435</v>
+        <v>0.9999986109301414</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9991960061003234</v>
+        <v>0.99999872048437</v>
       </c>
       <c r="G4" t="n">
-        <v>8.633025171679574e-05</v>
+        <v>2.972617996579846e-06</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0006357950851545438</v>
+        <v>0.0008310049121273429</v>
       </c>
       <c r="I4" t="n">
-        <v>7.648716547914235e-06</v>
+        <v>1.383307626163939e-06</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0005303933135225092</v>
+        <v>1.629514962551852e-06</v>
       </c>
       <c r="K4" t="n">
-        <v>0.000269021361013844</v>
+        <v>1.506411294357896e-06</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0004475772440577286</v>
+        <v>0.0001231393974297487</v>
       </c>
       <c r="M4" t="n">
-        <v>0.009291407413131541</v>
+        <v>0.001724128184497848</v>
       </c>
       <c r="N4" t="n">
-        <v>1.000088785151436</v>
+        <v>1.000003057147799</v>
       </c>
       <c r="O4" t="n">
-        <v>0.00968696186257342</v>
+        <v>0.001797527890749285</v>
       </c>
       <c r="P4" t="n">
-        <v>116.7146609599399</v>
+        <v>123.4521350261908</v>
       </c>
       <c r="Q4" t="n">
-        <v>176.4395763784817</v>
+        <v>183.1770504447326</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_32_3_24</t>
+          <t>model_32_3_3</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9999059576798173</v>
+        <v>0.9999972283003842</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9993188780577988</v>
+        <v>0.9991081925254622</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9999684676061575</v>
+        <v>0.9999968224769901</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9980687843771697</v>
+        <v>0.9999985205197022</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9991813683932603</v>
+        <v>0.9999984786400092</v>
       </c>
       <c r="G5" t="n">
-        <v>8.778437790982009e-05</v>
+        <v>2.587259927814324e-06</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0006357974352469297</v>
+        <v>0.0008324631316571322</v>
       </c>
       <c r="I5" t="n">
-        <v>7.648350894253387e-06</v>
+        <v>1.84670825217016e-06</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0005401858623192156</v>
+        <v>1.735575260788046e-06</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0002739192288681113</v>
+        <v>1.791141756479103e-06</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0004408098178266134</v>
+        <v>0.0001197900702212044</v>
       </c>
       <c r="M5" t="n">
-        <v>0.009369331774989083</v>
+        <v>0.001608496169661067</v>
       </c>
       <c r="N5" t="n">
-        <v>1.000090280627375</v>
+        <v>1.000002660831631</v>
       </c>
       <c r="O5" t="n">
-        <v>0.009768203625840905</v>
+        <v>0.001676973181649632</v>
       </c>
       <c r="P5" t="n">
-        <v>116.6812540025769</v>
+        <v>123.7298223703966</v>
       </c>
       <c r="Q5" t="n">
-        <v>176.4061694211187</v>
+        <v>183.4547377889384</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_32_3_20</t>
+          <t>model_32_3_4</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9999081362915896</v>
+        <v>0.9999975320297284</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9993188642996491</v>
+        <v>0.9991067232725445</v>
       </c>
       <c r="D6" t="n">
-        <v>0.999968458025376</v>
+        <v>0.9999959798253768</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9981180637175501</v>
+        <v>0.999998396020002</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9992019687070551</v>
+        <v>0.9999982087058273</v>
       </c>
       <c r="G6" t="n">
-        <v>8.575073945032546e-05</v>
+        <v>2.303741917126563e-06</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0006358102778758014</v>
+        <v>0.0008338346147631169</v>
       </c>
       <c r="I6" t="n">
-        <v>7.650674764075293e-06</v>
+        <v>2.336439304664782e-06</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0005264017966441113</v>
+        <v>1.881625600299275e-06</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0002670262357040932</v>
+        <v>2.1089431890953e-06</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0004503544044904154</v>
+        <v>0.0001166768765134266</v>
       </c>
       <c r="M6" t="n">
-        <v>0.009260169515204647</v>
+        <v>0.001517808260989036</v>
       </c>
       <c r="N6" t="n">
-        <v>1.000088189160074</v>
+        <v>1.000002369251461</v>
       </c>
       <c r="O6" t="n">
-        <v>0.009654394102660415</v>
+        <v>0.001582424500955583</v>
       </c>
       <c r="P6" t="n">
-        <v>116.728131697256</v>
+        <v>123.9619516730817</v>
       </c>
       <c r="Q6" t="n">
-        <v>176.4530471157978</v>
+        <v>183.6868670916235</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_32_3_19</t>
+          <t>model_32_3_5</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9999088025871269</v>
+        <v>0.9999977499032452</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9993188506873374</v>
+        <v>0.9991053460180338</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9999684445970534</v>
+        <v>0.9999951143131666</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9981335557151838</v>
+        <v>0.9999982493303531</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9992084368916879</v>
+        <v>0.9999979219224413</v>
       </c>
       <c r="G7" t="n">
-        <v>8.512878181329298e-05</v>
+        <v>2.100366552811646e-06</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0006358229843713047</v>
+        <v>0.000835120221394372</v>
       </c>
       <c r="I7" t="n">
-        <v>7.653931875617722e-06</v>
+        <v>2.839456446016047e-06</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0005220684855410647</v>
+        <v>2.053706922326036e-06</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0002648619408830761</v>
+        <v>2.446581684171041e-06</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0004534580003287108</v>
+        <v>0.0001138579932137427</v>
       </c>
       <c r="M7" t="n">
-        <v>0.009226525988328054</v>
+        <v>0.001449264141836003</v>
       </c>
       <c r="N7" t="n">
-        <v>1.000087549516358</v>
+        <v>1.000002160092885</v>
       </c>
       <c r="O7" t="n">
-        <v>0.009619318301192985</v>
+        <v>0.001510962316744317</v>
       </c>
       <c r="P7" t="n">
-        <v>116.7426907357871</v>
+        <v>124.1467973590177</v>
       </c>
       <c r="Q7" t="n">
-        <v>176.4676061543289</v>
+        <v>183.8717127775596</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_32_3_18</t>
+          <t>model_32_3_6</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9999095357077754</v>
+        <v>0.9999978999077827</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9993188060042558</v>
+        <v>0.9991040337192406</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9999684196667136</v>
+        <v>0.9999942385218694</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9981508346473004</v>
+        <v>0.999998089255431</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9992156476772092</v>
+        <v>0.9999976260091994</v>
       </c>
       <c r="G8" t="n">
-        <v>8.444444586819118e-05</v>
+        <v>1.960343901481196e-06</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0006358646940665769</v>
+        <v>0.000836345194714569</v>
       </c>
       <c r="I8" t="n">
-        <v>7.659978862961782e-06</v>
+        <v>3.348447572278121e-06</v>
       </c>
       <c r="J8" t="n">
-        <v>0.000517235345867264</v>
+        <v>2.241490480623774e-06</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0002624491671845598</v>
+        <v>2.794969026450948e-06</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0004569164624112117</v>
+        <v>0.000111316913281649</v>
       </c>
       <c r="M8" t="n">
-        <v>0.009189365912193898</v>
+        <v>0.001400122816570459</v>
       </c>
       <c r="N8" t="n">
-        <v>1.000086845720536</v>
+        <v>1.000002016088529</v>
       </c>
       <c r="O8" t="n">
-        <v>0.009580576243685834</v>
+        <v>0.001459728943525652</v>
       </c>
       <c r="P8" t="n">
-        <v>116.7588333703199</v>
+        <v>124.2847812803475</v>
       </c>
       <c r="Q8" t="n">
-        <v>176.4837487888617</v>
+        <v>184.0096966988893</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_32_3_17</t>
+          <t>model_32_3_7</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9999103173518313</v>
+        <v>0.9999979980771663</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9993187614959895</v>
+        <v>0.9991028202818508</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9999683955387747</v>
+        <v>0.9999933646712025</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9981695929210546</v>
+        <v>0.9999979254695439</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9992234838851245</v>
+        <v>0.9999973287261316</v>
       </c>
       <c r="G9" t="n">
-        <v>8.371481545216237e-05</v>
+        <v>1.868707091001925e-06</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0006359062405795047</v>
+        <v>0.00083747788525413</v>
       </c>
       <c r="I9" t="n">
-        <v>7.665831223681003e-06</v>
+        <v>3.85631084592548e-06</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0005119884152999396</v>
+        <v>2.433627364104368e-06</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0002598271232618102</v>
+        <v>3.144969105014924e-06</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0004607893171248877</v>
+        <v>0.0001090140158081584</v>
       </c>
       <c r="M9" t="n">
-        <v>0.00914958006971699</v>
+        <v>0.001367006617029312</v>
       </c>
       <c r="N9" t="n">
-        <v>1.000086095342242</v>
+        <v>1.00000192184592</v>
       </c>
       <c r="O9" t="n">
-        <v>0.009539096635526637</v>
+        <v>0.001425202918810055</v>
       </c>
       <c r="P9" t="n">
-        <v>116.7761891790715</v>
+        <v>124.3805275228156</v>
       </c>
       <c r="Q9" t="n">
-        <v>176.5011045976133</v>
+        <v>184.1054429413574</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_32_3_16</t>
+          <t>model_32_3_8</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9999111712609207</v>
+        <v>0.9999980569341902</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9993187048780682</v>
+        <v>0.999101690081075</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9999683848999685</v>
+        <v>0.9999925152854964</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9981903456915385</v>
+        <v>0.9999977601972777</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9992321541310651</v>
+        <v>0.999997037395943</v>
       </c>
       <c r="G10" t="n">
-        <v>8.291772879954948e-05</v>
+        <v>1.813766642673535e-06</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0006359590909237715</v>
+        <v>0.0008385328780682817</v>
       </c>
       <c r="I10" t="n">
-        <v>7.668411723032117e-06</v>
+        <v>4.34995560879928e-06</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0005061835983303218</v>
+        <v>2.62750791596525e-06</v>
       </c>
       <c r="K10" t="n">
-        <v>0.000256926005026677</v>
+        <v>3.487960684186656e-06</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0004650363607071165</v>
+        <v>0.0001068974292471259</v>
       </c>
       <c r="M10" t="n">
-        <v>0.009105917240978499</v>
+        <v>0.001346761538904915</v>
       </c>
       <c r="N10" t="n">
-        <v>1.000085275589516</v>
+        <v>1.000001865343177</v>
       </c>
       <c r="O10" t="n">
-        <v>0.009493574989774232</v>
+        <v>0.001404095965796814</v>
       </c>
       <c r="P10" t="n">
-        <v>116.7953233220658</v>
+        <v>124.4402097139071</v>
       </c>
       <c r="Q10" t="n">
-        <v>176.5202387406077</v>
+        <v>184.165125132449</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_32_3_15</t>
+          <t>model_32_3_9</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9999120976640418</v>
+        <v>0.999998084306216</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9993185926522293</v>
+        <v>0.9991006455091218</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9999683526146679</v>
+        <v>0.9999916936403879</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9982133700250545</v>
+        <v>0.9999975954811496</v>
       </c>
       <c r="F11" t="n">
-        <v>0.999241751618819</v>
+        <v>0.9999967517806336</v>
       </c>
       <c r="G11" t="n">
-        <v>8.205297215040431e-05</v>
+        <v>1.788216058147142e-06</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0006360638488182517</v>
+        <v>0.0008395079401351704</v>
       </c>
       <c r="I11" t="n">
-        <v>7.676242695520309e-06</v>
+        <v>4.827478131058004e-06</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0004997433959481411</v>
+        <v>2.820736063176236e-06</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0002537146259118708</v>
+        <v>3.824223968277719e-06</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0004697728242852644</v>
+        <v>0.0001050370229415727</v>
       </c>
       <c r="M11" t="n">
-        <v>0.009058309563621919</v>
+        <v>0.001337241959462513</v>
       </c>
       <c r="N11" t="n">
-        <v>1.00008438624252</v>
+        <v>1.000001839066033</v>
       </c>
       <c r="O11" t="n">
-        <v>0.009443940555031104</v>
+        <v>0.001394171118149302</v>
       </c>
       <c r="P11" t="n">
-        <v>116.8162910348704</v>
+        <v>124.4685841012467</v>
       </c>
       <c r="Q11" t="n">
-        <v>176.5412064534122</v>
+        <v>184.1934995197886</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_32_3_14</t>
+          <t>model_32_3_10</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9999130778205244</v>
+        <v>0.9999980908530367</v>
       </c>
       <c r="C12" t="n">
-        <v>0.999318442691285</v>
+        <v>0.9990996911997729</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9999683223476438</v>
+        <v>0.9999909188193625</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9982383614453014</v>
+        <v>0.9999974381881132</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9992522007574686</v>
+        <v>0.999996482274159</v>
       </c>
       <c r="G12" t="n">
-        <v>8.113803909778227e-05</v>
+        <v>1.782104888416696e-06</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0006362038307771932</v>
+        <v>0.0008403987460230718</v>
       </c>
       <c r="I12" t="n">
-        <v>7.683584124215466e-06</v>
+        <v>5.277787500023861e-06</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0004927529740930962</v>
+        <v>3.005256197218565e-06</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0002502182791086558</v>
+        <v>4.141521848621213e-06</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0004750738831186203</v>
+        <v>0.000103294093937567</v>
       </c>
       <c r="M12" t="n">
-        <v>0.009007665574264082</v>
+        <v>0.001334955013630308</v>
       </c>
       <c r="N12" t="n">
-        <v>1.000083445292297</v>
+        <v>1.000001832781085</v>
       </c>
       <c r="O12" t="n">
-        <v>0.009391140546198794</v>
+        <v>0.00139178681229839</v>
       </c>
       <c r="P12" t="n">
-        <v>116.8387173347548</v>
+        <v>124.4754307414116</v>
       </c>
       <c r="Q12" t="n">
-        <v>176.5636327532966</v>
+        <v>184.2003461599534</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_32_3_13</t>
+          <t>model_32_3_11</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9999141136209255</v>
+        <v>0.9999980817220754</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9993182763328935</v>
+        <v>0.9990988135714305</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9999682609604771</v>
+        <v>0.9999901916449389</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9982655502467721</v>
+        <v>0.9999972876904411</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9992635603359372</v>
+        <v>0.9999962278140558</v>
       </c>
       <c r="G13" t="n">
-        <v>8.017116488965381e-05</v>
+        <v>1.790628239927718e-06</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0006363591190334578</v>
+        <v>0.0008412179735572643</v>
       </c>
       <c r="I13" t="n">
-        <v>7.698473910040991e-06</v>
+        <v>5.700405685530397e-06</v>
       </c>
       <c r="J13" t="n">
-        <v>0.000485147916431881</v>
+        <v>3.181804703402017e-06</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0002464172934775651</v>
+        <v>4.441105194466207e-06</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0004809826018584937</v>
+        <v>0.000101699137728292</v>
       </c>
       <c r="M13" t="n">
-        <v>0.008953835205634164</v>
+        <v>0.001338143579713222</v>
       </c>
       <c r="N13" t="n">
-        <v>1.000082450923911</v>
+        <v>1.000001841546808</v>
       </c>
       <c r="O13" t="n">
-        <v>0.009335018507332078</v>
+        <v>0.001395111122240696</v>
       </c>
       <c r="P13" t="n">
-        <v>116.8626932955421</v>
+        <v>124.4658880553225</v>
       </c>
       <c r="Q13" t="n">
-        <v>176.587608714084</v>
+        <v>184.1908034738643</v>
       </c>
     </row>
     <row r="14">
@@ -1182,712 +1182,712 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9999151810539083</v>
+        <v>0.9999980593853418</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9993181012866771</v>
+        <v>0.9990980059403636</v>
       </c>
       <c r="D14" t="n">
-        <v>0.999968170598823</v>
+        <v>0.9999894999424759</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9982948324656117</v>
+        <v>0.9999971438088336</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9992757491295422</v>
+        <v>0.9999959854053105</v>
       </c>
       <c r="G14" t="n">
-        <v>7.917476305513794e-05</v>
+        <v>1.811478600257178e-06</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0006365225169927499</v>
+        <v>0.0008419718617073587</v>
       </c>
       <c r="I14" t="n">
-        <v>7.720391612865136e-06</v>
+        <v>6.10240832797949e-06</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0004769573029925901</v>
+        <v>3.3505919179049e-06</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0002423388473027276</v>
+        <v>4.726500122942195e-06</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0004876397617436608</v>
+        <v>0.0001003066482767602</v>
       </c>
       <c r="M14" t="n">
-        <v>0.008898020176148059</v>
+        <v>0.001345911809985029</v>
       </c>
       <c r="N14" t="n">
-        <v>1.000081426188248</v>
+        <v>1.000001862990072</v>
       </c>
       <c r="O14" t="n">
-        <v>0.009276827316487709</v>
+        <v>0.001403210062157627</v>
       </c>
       <c r="P14" t="n">
-        <v>116.8877059164335</v>
+        <v>124.4427342799068</v>
       </c>
       <c r="Q14" t="n">
-        <v>176.6126213349754</v>
+        <v>184.1676496984486</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_32_3_11</t>
+          <t>model_32_3_13</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9999163267256642</v>
+        <v>0.9999980285821012</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9993178034561436</v>
+        <v>0.9990972719949942</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9999680878892387</v>
+        <v>0.9999888532693313</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9983273121075809</v>
+        <v>0.9999970085708262</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9992892887994961</v>
+        <v>0.9999957584170014</v>
       </c>
       <c r="G15" t="n">
-        <v>7.810532876017834e-05</v>
+        <v>1.840232073294298e-06</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0006368005287225652</v>
+        <v>0.0008426569674931568</v>
       </c>
       <c r="I15" t="n">
-        <v>7.740453265214706e-06</v>
+        <v>6.478240895918826e-06</v>
       </c>
       <c r="J15" t="n">
-        <v>0.0004678723291566643</v>
+        <v>3.509239343136004e-06</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0002378083894968198</v>
+        <v>4.993740119527416e-06</v>
       </c>
       <c r="L15" t="n">
-        <v>0.000494986541974691</v>
+        <v>9.907487949362564e-05</v>
       </c>
       <c r="M15" t="n">
-        <v>0.008837721921410423</v>
+        <v>0.001356551537279103</v>
       </c>
       <c r="N15" t="n">
-        <v>1.000080326343362</v>
+        <v>1.000001892561183</v>
       </c>
       <c r="O15" t="n">
-        <v>0.009213962040211297</v>
+        <v>0.001414302744669881</v>
       </c>
       <c r="P15" t="n">
-        <v>116.9149045469646</v>
+        <v>124.4112377350126</v>
       </c>
       <c r="Q15" t="n">
-        <v>176.6398199655065</v>
+        <v>184.1361531535545</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_32_3_10</t>
+          <t>model_32_3_14</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9999175097623313</v>
+        <v>0.9999979942073535</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9993174260873746</v>
+        <v>0.9990966010788699</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9999679535957119</v>
+        <v>0.9999882636451876</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9983625629005438</v>
+        <v>0.9999968828166133</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9993039940476017</v>
+        <v>0.9999955502344223</v>
       </c>
       <c r="G16" t="n">
-        <v>7.700101596075822e-05</v>
+        <v>1.872319391439827e-06</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0006371527859038001</v>
+        <v>0.0008432832382453856</v>
       </c>
       <c r="I16" t="n">
-        <v>7.773026878918436e-06</v>
+        <v>6.82091780766699e-06</v>
       </c>
       <c r="J16" t="n">
-        <v>0.0004580122287261445</v>
+        <v>3.65676134883835e-06</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0002328879219895306</v>
+        <v>5.238839578252671e-06</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0005031873285188773</v>
+        <v>9.788385559636529e-05</v>
       </c>
       <c r="M16" t="n">
-        <v>0.008775022276938002</v>
+        <v>0.001368327223817398</v>
       </c>
       <c r="N16" t="n">
-        <v>1.000079190628162</v>
+        <v>1.000001925560941</v>
       </c>
       <c r="O16" t="n">
-        <v>0.00914859314206753</v>
+        <v>0.001426579746563143</v>
       </c>
       <c r="P16" t="n">
-        <v>116.9433838838041</v>
+        <v>124.3766651587532</v>
       </c>
       <c r="Q16" t="n">
-        <v>176.668299302346</v>
+        <v>184.101580577295</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_32_3_9</t>
+          <t>model_32_3_15</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9999187060671624</v>
+        <v>0.9999979557682994</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9993169634737311</v>
+        <v>0.999095995070731</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9999678302032047</v>
+        <v>0.9999877102926137</v>
       </c>
       <c r="E17" t="n">
-        <v>0.998400592707307</v>
+        <v>0.9999967657445877</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9993198307005507</v>
+        <v>0.9999953562017295</v>
       </c>
       <c r="G17" t="n">
-        <v>7.588431791267823e-05</v>
+        <v>1.908200561065284e-06</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0006375846154336423</v>
+        <v>0.0008438489202424103</v>
       </c>
       <c r="I17" t="n">
-        <v>7.802956391969961e-06</v>
+        <v>7.142514460576252e-06</v>
       </c>
       <c r="J17" t="n">
-        <v>0.0004473748023728476</v>
+        <v>3.794098298576847e-06</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0002275888793824088</v>
+        <v>5.467279960743417e-06</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0005123425215363464</v>
+        <v>9.684261947587045e-05</v>
       </c>
       <c r="M17" t="n">
-        <v>0.00871116053764814</v>
+        <v>0.001381376328545297</v>
       </c>
       <c r="N17" t="n">
-        <v>1.000078042175524</v>
+        <v>1.000001962462433</v>
       </c>
       <c r="O17" t="n">
-        <v>0.009082012676324072</v>
+        <v>0.001440184378694679</v>
       </c>
       <c r="P17" t="n">
-        <v>116.9726010200535</v>
+        <v>124.3386997492003</v>
       </c>
       <c r="Q17" t="n">
-        <v>176.6975164385954</v>
+        <v>184.0636151677421</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_32_3_8</t>
+          <t>model_32_3_16</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9999198647737907</v>
+        <v>0.9999979162443735</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9993164328515661</v>
+        <v>0.9990954459659679</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9999676180602673</v>
+        <v>0.9999872077083013</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9984409279263916</v>
+        <v>0.9999966588365342</v>
       </c>
       <c r="F18" t="n">
-        <v>0.999336599501793</v>
+        <v>0.9999951780197776</v>
       </c>
       <c r="G18" t="n">
-        <v>7.480271613644959e-05</v>
+        <v>1.9450944110529e-06</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0006380799279330721</v>
+        <v>0.0008443614854357869</v>
       </c>
       <c r="I18" t="n">
-        <v>7.854412796845205e-06</v>
+        <v>7.434605688281519e-06</v>
       </c>
       <c r="J18" t="n">
-        <v>0.0004360925225251168</v>
+        <v>3.919511913817588e-06</v>
       </c>
       <c r="K18" t="n">
-        <v>0.000221977934156846</v>
+        <v>5.677058801049553e-06</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0005226772273652606</v>
+        <v>9.588696405052613e-05</v>
       </c>
       <c r="M18" t="n">
-        <v>0.00864885634846883</v>
+        <v>0.001394666415689752</v>
       </c>
       <c r="N18" t="n">
-        <v>1.000076929817161</v>
+        <v>1.000002000405401</v>
       </c>
       <c r="O18" t="n">
-        <v>0.009017056068823947</v>
+        <v>0.001454040252363146</v>
       </c>
       <c r="P18" t="n">
-        <v>117.001312723317</v>
+        <v>124.3004000833696</v>
       </c>
       <c r="Q18" t="n">
-        <v>176.7262281418588</v>
+        <v>184.0253155019115</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_32_3_7</t>
+          <t>model_32_3_17</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9999210273110529</v>
+        <v>0.9999978754916025</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9993157291764032</v>
+        <v>0.9990949418732759</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9999673781106682</v>
+        <v>0.9999867399805538</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9984850664516712</v>
+        <v>0.9999965589302907</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9993549746016429</v>
+        <v>0.9999950120689726</v>
       </c>
       <c r="G19" t="n">
-        <v>7.371753863173112e-05</v>
+        <v>1.983135333987708e-06</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0006387367778098332</v>
+        <v>0.0008448320338367036</v>
       </c>
       <c r="I19" t="n">
-        <v>7.912613856387201e-06</v>
+        <v>7.706439027803675e-06</v>
       </c>
       <c r="J19" t="n">
-        <v>0.0004237464089903056</v>
+        <v>4.036711720367225e-06</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0002158295114233464</v>
+        <v>5.872437553062376e-06</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0005341028999484328</v>
+        <v>9.504272320108709e-05</v>
       </c>
       <c r="M19" t="n">
-        <v>0.008585891836712779</v>
+        <v>0.001408238379674304</v>
       </c>
       <c r="N19" t="n">
-        <v>1.000075813781389</v>
+        <v>1.000002039528062</v>
       </c>
       <c r="O19" t="n">
-        <v>0.00895141102744793</v>
+        <v>0.001468190002952359</v>
       </c>
       <c r="P19" t="n">
-        <v>117.0305396275733</v>
+        <v>124.2616629273224</v>
       </c>
       <c r="Q19" t="n">
-        <v>176.7554550461151</v>
+        <v>183.9865783458642</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_32_3_6</t>
+          <t>model_32_3_18</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9999221342371802</v>
+        <v>0.9999978353635761</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9993148559498638</v>
+        <v>0.9990944798224174</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9999671267911142</v>
+        <v>0.9999863065242089</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9985327222700777</v>
+        <v>0.9999964680930313</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9993747894510807</v>
+        <v>0.9999948603355318</v>
       </c>
       <c r="G20" t="n">
-        <v>7.268427168028524e-05</v>
+        <v>2.020593085182889e-06</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0006395518964541704</v>
+        <v>0.0008452633380314033</v>
       </c>
       <c r="I20" t="n">
-        <v>7.973572759308323e-06</v>
+        <v>7.958354562772616e-06</v>
       </c>
       <c r="J20" t="n">
-        <v>0.0004104164633042285</v>
+        <v>4.143272720481468e-06</v>
       </c>
       <c r="K20" t="n">
-        <v>0.0002091993395200719</v>
+        <v>6.051077784955247e-06</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0005468308024190909</v>
+        <v>9.427896747654875e-05</v>
       </c>
       <c r="M20" t="n">
-        <v>0.008525507121590201</v>
+        <v>0.001421475671681682</v>
       </c>
       <c r="N20" t="n">
-        <v>1.000074751132307</v>
+        <v>1.000002078050967</v>
       </c>
       <c r="O20" t="n">
-        <v>0.008888455609988995</v>
+        <v>0.001481990833885464</v>
       </c>
       <c r="P20" t="n">
-        <v>117.058771084713</v>
+        <v>124.2242389662379</v>
       </c>
       <c r="Q20" t="n">
-        <v>176.7836865032549</v>
+        <v>183.9491543847797</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_32_3_5</t>
+          <t>model_32_3_19</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9999231060983366</v>
+        <v>0.999997797203072</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9993137297628352</v>
+        <v>0.9990940694687177</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9999667811101915</v>
+        <v>0.999985919545715</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9985832015785767</v>
+        <v>0.9999963837407204</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9993957760728309</v>
+        <v>0.9999947232056524</v>
       </c>
       <c r="G21" t="n">
-        <v>7.17770819506519e-05</v>
+        <v>2.056214240620591e-06</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0006406031426115476</v>
+        <v>0.0008456463851976487</v>
       </c>
       <c r="I21" t="n">
-        <v>8.057419517270434e-06</v>
+        <v>8.183258167192969e-06</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0003962967511040517</v>
+        <v>4.242226240950913e-06</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0002021770853106611</v>
+        <v>6.212524815619101e-06</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0005610967533247383</v>
+        <v>9.357231433879191e-05</v>
       </c>
       <c r="M21" t="n">
-        <v>0.008472135619231547</v>
+        <v>0.001433950571191556</v>
       </c>
       <c r="N21" t="n">
-        <v>1.000073818145597</v>
+        <v>1.000002114685051</v>
       </c>
       <c r="O21" t="n">
-        <v>0.008832811972280691</v>
+        <v>0.001494996815694075</v>
       </c>
       <c r="P21" t="n">
-        <v>117.0838906515017</v>
+        <v>124.1892880263272</v>
       </c>
       <c r="Q21" t="n">
-        <v>176.8088060700435</v>
+        <v>183.914203444869</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_32_3_4</t>
+          <t>model_32_3_20</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.999923809004956</v>
+        <v>0.9999977604558408</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9993125603770988</v>
+        <v>0.9990936948607739</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9999662487994342</v>
+        <v>0.9999855669807772</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9986352682271175</v>
+        <v>0.9999963071659019</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9994173456012486</v>
+        <v>0.999994597774307</v>
       </c>
       <c r="G22" t="n">
-        <v>7.112094947540441e-05</v>
+        <v>2.090516167975045e-06</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0006416947128662531</v>
+        <v>0.0008459960652696842</v>
       </c>
       <c r="I22" t="n">
-        <v>8.186534340491981e-06</v>
+        <v>8.388161350624208e-06</v>
       </c>
       <c r="J22" t="n">
-        <v>0.0003817330394669065</v>
+        <v>4.33205600133162e-06</v>
       </c>
       <c r="K22" t="n">
-        <v>0.0001949597869036993</v>
+        <v>6.360198818903596e-06</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0005773636202557759</v>
+        <v>9.292341603436812e-05</v>
       </c>
       <c r="M22" t="n">
-        <v>0.008433323750183222</v>
+        <v>0.001445861738886207</v>
       </c>
       <c r="N22" t="n">
-        <v>1.000073143355242</v>
+        <v>1.000002149962393</v>
       </c>
       <c r="O22" t="n">
-        <v>0.008792347801615334</v>
+        <v>0.001507415066457003</v>
       </c>
       <c r="P22" t="n">
-        <v>117.1022572330373</v>
+        <v>124.1561991043134</v>
       </c>
       <c r="Q22" t="n">
-        <v>176.8271726515791</v>
+        <v>183.8811145228553</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_32_3_3</t>
+          <t>model_32_3_21</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9999242583122244</v>
+        <v>0.9999977249648485</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9993110426688595</v>
+        <v>0.9990933557370275</v>
       </c>
       <c r="D23" t="n">
-        <v>0.999965723268829</v>
+        <v>0.9999852360465539</v>
       </c>
       <c r="E23" t="n">
-        <v>0.998690657985156</v>
+        <v>0.9999962382565339</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9994403050887886</v>
+        <v>0.999994481838597</v>
       </c>
       <c r="G23" t="n">
-        <v>7.070154086260859e-05</v>
+        <v>2.123645451463676e-06</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0006431114268880167</v>
+        <v>0.0008463126224011812</v>
       </c>
       <c r="I23" t="n">
-        <v>8.314004601510791e-06</v>
+        <v>8.580493226498593e-06</v>
       </c>
       <c r="J23" t="n">
-        <v>0.000366239811338496</v>
+        <v>4.412893437548569e-06</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0001872773995265462</v>
+        <v>6.49669333202358e-06</v>
       </c>
       <c r="L23" t="n">
-        <v>0.000595437407005759</v>
+        <v>9.234547233319508e-05</v>
       </c>
       <c r="M23" t="n">
-        <v>0.008408420830489432</v>
+        <v>0.00145727329333371</v>
       </c>
       <c r="N23" t="n">
-        <v>1.000072712020265</v>
+        <v>1.000002184033745</v>
       </c>
       <c r="O23" t="n">
-        <v>0.008766384713074029</v>
+        <v>0.00151931243440251</v>
       </c>
       <c r="P23" t="n">
-        <v>117.1140863818401</v>
+        <v>124.1247527868821</v>
       </c>
       <c r="Q23" t="n">
-        <v>176.8390018003819</v>
+        <v>183.8496682054239</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_32_3_2</t>
+          <t>model_32_3_22</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9999243574608271</v>
+        <v>0.9999976921384768</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9993091351680482</v>
+        <v>0.9990930493947585</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9999651084964276</v>
+        <v>0.9999849469617093</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9987494619997864</v>
+        <v>0.9999961737018951</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9994646636256637</v>
+        <v>0.9999943779364173</v>
       </c>
       <c r="G24" t="n">
-        <v>7.060898999417942e-05</v>
+        <v>2.154287428562556e-06</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0006448919951657475</v>
+        <v>0.0008465985794623942</v>
       </c>
       <c r="I24" t="n">
-        <v>8.463120937858261e-06</v>
+        <v>8.74850314064333e-06</v>
       </c>
       <c r="J24" t="n">
-        <v>0.000349791571703579</v>
+        <v>4.488622350132299e-06</v>
       </c>
       <c r="K24" t="n">
-        <v>0.0001791268815374261</v>
+        <v>6.619020416792716e-06</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0006154874090048279</v>
+        <v>9.18324185858419e-05</v>
       </c>
       <c r="M24" t="n">
-        <v>0.008402915565098784</v>
+        <v>0.001467749102729263</v>
       </c>
       <c r="N24" t="n">
-        <v>1.000072616837606</v>
+        <v>1.000002215547062</v>
       </c>
       <c r="O24" t="n">
-        <v>0.008760645077138231</v>
+        <v>0.001530234220691947</v>
       </c>
       <c r="P24" t="n">
-        <v>117.1167061690874</v>
+        <v>124.0961010973765</v>
       </c>
       <c r="Q24" t="n">
-        <v>176.8416215876292</v>
+        <v>183.8210165159183</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_32_3_1</t>
+          <t>model_32_3_23</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9999239106515418</v>
+        <v>0.9999976614315903</v>
       </c>
       <c r="C25" t="n">
-        <v>0.999306913845961</v>
+        <v>0.9990927735569306</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9999643748206075</v>
+        <v>0.9999846774062321</v>
       </c>
       <c r="E25" t="n">
-        <v>0.998809955854664</v>
+        <v>0.9999961155595607</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9994896811269096</v>
+        <v>0.9999942835680753</v>
       </c>
       <c r="G25" t="n">
-        <v>7.102606684926601e-05</v>
+        <v>2.182950959166302e-06</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0006469655018292836</v>
+        <v>0.0008468560619669114</v>
       </c>
       <c r="I25" t="n">
-        <v>8.641077934807776e-06</v>
+        <v>8.905163005137139e-06</v>
       </c>
       <c r="J25" t="n">
-        <v>0.0003328706620051636</v>
+        <v>4.556829001721558e-06</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0001707558699699856</v>
+        <v>6.730123034828817e-06</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0006381476938620204</v>
+        <v>9.136203133448488e-05</v>
       </c>
       <c r="M25" t="n">
-        <v>0.008427696414161228</v>
+        <v>0.001477481288939492</v>
       </c>
       <c r="N25" t="n">
-        <v>1.00007304577452</v>
+        <v>1.000002245025673</v>
       </c>
       <c r="O25" t="n">
-        <v>0.008786480898248692</v>
+        <v>0.001540380726217549</v>
       </c>
       <c r="P25" t="n">
-        <v>117.1049272191597</v>
+        <v>124.0696658910582</v>
       </c>
       <c r="Q25" t="n">
-        <v>176.8298426377015</v>
+        <v>183.7945813096</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_32_3_0</t>
+          <t>model_32_3_24</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9999228446339945</v>
+        <v>0.9999976327806912</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9993042086104125</v>
+        <v>0.999092522769086</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9999636112278952</v>
+        <v>0.9999844371411652</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9988737231584806</v>
+        <v>0.9999960638468005</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9995160697232035</v>
+        <v>0.9999941977607454</v>
       </c>
       <c r="G26" t="n">
-        <v>7.202114743699575e-05</v>
+        <v>2.209695315857744e-06</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0006494907204677696</v>
+        <v>0.0008470901614115562</v>
       </c>
       <c r="I26" t="n">
-        <v>8.826291434096219e-06</v>
+        <v>9.04479991107193e-06</v>
       </c>
       <c r="J26" t="n">
-        <v>0.0003150341265128846</v>
+        <v>4.617493133144503e-06</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0001619260814689898</v>
+        <v>6.831146522108217e-06</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0006639276981638925</v>
+        <v>9.092362509621333e-05</v>
       </c>
       <c r="M26" t="n">
-        <v>0.008486527407426182</v>
+        <v>0.001486504394832973</v>
       </c>
       <c r="N26" t="n">
-        <v>1.000074069151365</v>
+        <v>1.000002272530536</v>
       </c>
       <c r="O26" t="n">
-        <v>0.00884781644869388</v>
+        <v>0.00154978796440932</v>
       </c>
       <c r="P26" t="n">
-        <v>117.0771015353423</v>
+        <v>124.0453118361335</v>
       </c>
       <c r="Q26" t="n">
-        <v>176.8020169538841</v>
+        <v>183.7702272546753</v>
       </c>
     </row>
   </sheetData>
